--- a/trial_balance_report.xlsx
+++ b/trial_balance_report.xlsx
@@ -414,10 +414,10 @@
         <v>4</v>
       </c>
       <c r="C2">
+        <v>-200</v>
+      </c>
+      <c r="D2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>-200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>5</v>
       </c>
       <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
         <v>0</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -440,10 +440,10 @@
         <v>6</v>
       </c>
       <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
         <v>0</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/trial_balance_report.xlsx
+++ b/trial_balance_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Beginning Balance</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Expenses</t>
   </si>
   <si>
+    <t>Revenue</t>
+  </si>
+  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -35,6 +38,27 @@
   </si>
   <si>
     <t>Tea Bottles</t>
+  </si>
+  <si>
+    <t>Office Supplies</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Tea Ingredients</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Tea Sales</t>
+  </si>
+  <si>
+    <t>Farmer Market Sales</t>
   </si>
 </sst>
 </file>
@@ -392,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,13 +435,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -425,30 +449,117 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-7500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
